--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcox/eclipse/eclipse-projects/Week8_Final_Project_KC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA81004A-FD54-8940-9582-4948B450A9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D8522-E5EB-8149-99C3-6C126BFD0EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-15100" windowWidth="28040" windowHeight="17040" xr2:uid="{C80F274A-1173-DD4B-B65F-E344EE0BF25C}"/>
+    <workbookView xWindow="-30700" yWindow="-18680" windowWidth="28040" windowHeight="17040" xr2:uid="{C80F274A-1173-DD4B-B65F-E344EE0BF25C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="src" sheetId="1" r:id="rId1"/>
+    <sheet name="Original_working_design_pattter" sheetId="2" r:id="rId2"/>
+    <sheet name="version_2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Test Cases</t>
   </si>
@@ -51,6 +53,87 @@
   </si>
   <si>
     <t xml:space="preserve">Location, Cost, and Course Length will load for both programs. </t>
+  </si>
+  <si>
+    <t>Open BorderLayoutDemo. Java File</t>
+  </si>
+  <si>
+    <t>Pop up with 4 buttons on the page</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/version_2/src/BorderLayoutDemo.java</t>
+  </si>
+  <si>
+    <t>Select School Images</t>
+  </si>
+  <si>
+    <t>Select Curriculum</t>
+  </si>
+  <si>
+    <t>Select Description</t>
+  </si>
+  <si>
+    <t>Selec Career Outlook</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/version_2/src/commandProgram</t>
+  </si>
+  <si>
+    <t>New window pops open and image loads</t>
+  </si>
+  <si>
+    <t>New window pops and Description loads on screen</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/version_2/src/proxyImage</t>
+  </si>
+  <si>
+    <t>New window pops and List of courses populates</t>
+  </si>
+  <si>
+    <t>New window pops and career options show on screen</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/version_2/src/iteratorCourse</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/version_2/src/decorarorCompare</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/Original_working_design_pattterns/src/proxyImage</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/Original_working_design_pattterns/src/iteratorCourse</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/Original_working_design_pattterns/src/commandProgram</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/Original_working_design_pattterns/src/decorarorCompare</t>
+  </si>
+  <si>
+    <t>List of courses populates in console</t>
+  </si>
+  <si>
+    <t>New window pops up and selecting different buttons change the color of program to show pattern working.</t>
+  </si>
+  <si>
+    <t>Select Buttons</t>
+  </si>
+  <si>
+    <t>Select School Images from dropdown</t>
+  </si>
+  <si>
+    <t>Run program</t>
+  </si>
+  <si>
+    <t>Information will be divided into two sections showing MSCS and MSDS</t>
+  </si>
+  <si>
+    <t>Week8_Final_Project_KC/programOutput.java</t>
+  </si>
+  <si>
+    <t>File</t>
   </si>
 </sst>
 </file>
@@ -67,22 +150,28 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -91,8 +180,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -103,10 +220,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,40 +550,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D39F7C-FD12-2546-A5A8-466A4F5AA0F2}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="68.5" customWidth="1"/>
+    <col min="3" max="3" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50201FBC-C7B2-2647-9C33-6BCFD505D6E7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.5" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F563A5B-86E5-8F4B-9AFC-427BB994E478}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.83203125" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
